--- a/public/data_example/tabular_regression.xlsx
+++ b/public/data_example/tabular_regression.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lap Top\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Lab ISE\eval-res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01DFC7B-1C94-43E7-A1B3-0681048527E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{713E9D9B-AEE6-41F3-A40C-BF333918FFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EE155FF1-2FB6-437C-B318-ECD1EAA04FE0}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{DC2BB7ED-46EF-4D66-93A5-5A65305E56B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>num_bedrooms</t>
-  </si>
-  <si>
-    <t>age (years)</t>
-  </si>
-  <si>
-    <t>price ($)</t>
-  </si>
-  <si>
-    <t>square_feet</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>Square Footage</t>
+  </si>
+  <si>
+    <t>Bedrooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Suburban</t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>Predicted Price ($ M)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,17 +58,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -81,36 +82,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,75 +402,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCD223A-5FF1-457A-ADF7-88902B72F389}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71E40C3-9C0E-4E75-8BFA-DD60A324BB26}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
+      <c r="D2">
+        <v>1.2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>300.5</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <v>450</v>
+      <c r="D4">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>150.75</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
